--- a/inst/extdata/MSF-survey-dict.xlsx
+++ b/inst/extdata/MSF-survey-dict.xlsx
@@ -575,9 +575,6 @@
     <t>oedema</t>
   </si>
   <si>
-    <t>age_months</t>
-  </si>
-  <si>
     <t>sex</t>
   </si>
   <si>
@@ -966,6 +963,9 @@
   </si>
   <si>
     <t>q77_what_is_the_cluster_number</t>
+  </si>
+  <si>
+    <t>age_month</t>
   </si>
 </sst>
 </file>
@@ -3424,7 +3424,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3459,10 +3459,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -3477,10 +3477,10 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -3495,10 +3495,10 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -3513,10 +3513,10 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
@@ -3707,7 +3707,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>122</v>
@@ -3739,7 +3739,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>184</v>
+        <v>314</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>119</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -3964,10 +3964,10 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -3982,16 +3982,16 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F4" t="s">
         <v>173</v>
@@ -4005,7 +4005,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F5" t="s">
         <v>173</v>
@@ -4019,7 +4019,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F6" t="s">
         <v>173</v>
@@ -4033,7 +4033,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F7" t="s">
         <v>173</v>
@@ -4047,7 +4047,7 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F8" t="s">
         <v>173</v>
@@ -4058,7 +4058,7 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -4070,10 +4070,10 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>0</v>
@@ -4088,10 +4088,10 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>4</v>
@@ -4120,10 +4120,10 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>0</v>
@@ -4138,10 +4138,10 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>4</v>
@@ -4170,16 +4170,16 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F16" t="s">
         <v>173</v>
@@ -4193,7 +4193,7 @@
         <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F17" t="s">
         <v>173</v>
@@ -4207,7 +4207,7 @@
         <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F18" t="s">
         <v>173</v>
@@ -4221,7 +4221,7 @@
         <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F19" t="s">
         <v>173</v>
@@ -4235,7 +4235,7 @@
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F20" t="s">
         <v>173</v>
@@ -4249,7 +4249,7 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F21" t="s">
         <v>173</v>
@@ -4263,7 +4263,7 @@
         <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F22" t="s">
         <v>173</v>
@@ -4277,7 +4277,7 @@
         <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F23" t="s">
         <v>173</v>
@@ -4300,10 +4300,10 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>0</v>
@@ -4318,10 +4318,10 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>4</v>
@@ -4341,7 +4341,7 @@
         <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F27" t="s">
         <v>173</v>
@@ -4369,7 +4369,7 @@
         <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F29" t="s">
         <v>173</v>
@@ -4378,10 +4378,10 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>0</v>
@@ -4398,10 +4398,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>4</v>
@@ -4430,10 +4430,10 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>0</v>
@@ -4448,10 +4448,10 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>0</v>
@@ -4466,10 +4466,10 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>3</v>
@@ -4489,7 +4489,7 @@
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F36" t="s">
         <v>173</v>
@@ -4503,7 +4503,7 @@
         <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F37" t="s">
         <v>173</v>
@@ -4517,7 +4517,7 @@
         <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F38" t="s">
         <v>173</v>
@@ -4531,7 +4531,7 @@
         <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F39" t="s">
         <v>173</v>
@@ -4540,10 +4540,10 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>0</v>
@@ -4558,10 +4558,10 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>0</v>
@@ -4576,16 +4576,16 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F42" t="s">
         <v>173</v>
@@ -4599,7 +4599,7 @@
         <v>43</v>
       </c>
       <c r="E43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F43" t="s">
         <v>173</v>
@@ -4613,7 +4613,7 @@
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F44" t="s">
         <v>173</v>
@@ -4624,7 +4624,7 @@
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E45" t="s">
         <v>16</v>
@@ -4636,10 +4636,10 @@
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>0</v>
@@ -4654,16 +4654,16 @@
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F47" t="s">
         <v>173</v>
@@ -4677,7 +4677,7 @@
         <v>43</v>
       </c>
       <c r="E48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F48" t="s">
         <v>173</v>
@@ -4691,7 +4691,7 @@
         <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F49" t="s">
         <v>173</v>
@@ -4705,7 +4705,7 @@
         <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F50" t="s">
         <v>173</v>
@@ -4719,7 +4719,7 @@
         <v>44</v>
       </c>
       <c r="E51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F51" t="s">
         <v>173</v>
@@ -4733,7 +4733,7 @@
         <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F52" t="s">
         <v>173</v>
@@ -4747,7 +4747,7 @@
         <v>48</v>
       </c>
       <c r="E53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F53" t="s">
         <v>173</v>
@@ -4761,7 +4761,7 @@
         <v>49</v>
       </c>
       <c r="E54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F54" t="s">
         <v>173</v>
@@ -4775,7 +4775,7 @@
         <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F55" t="s">
         <v>173</v>
@@ -4789,7 +4789,7 @@
         <v>50</v>
       </c>
       <c r="E56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F56" t="s">
         <v>173</v>
@@ -4798,10 +4798,10 @@
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>0</v>
@@ -4816,10 +4816,10 @@
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>3</v>
@@ -4839,7 +4839,7 @@
         <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F59" t="s">
         <v>173</v>
@@ -4853,7 +4853,7 @@
         <v>43</v>
       </c>
       <c r="E60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F60" t="s">
         <v>173</v>
@@ -4867,7 +4867,7 @@
         <v>46</v>
       </c>
       <c r="E61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F61" t="s">
         <v>173</v>
@@ -4881,7 +4881,7 @@
         <v>17</v>
       </c>
       <c r="E62" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F62" t="s">
         <v>173</v>
@@ -4890,16 +4890,16 @@
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F63" t="s">
         <v>173</v>
@@ -4913,7 +4913,7 @@
         <v>43</v>
       </c>
       <c r="E64" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F64" t="s">
         <v>173</v>
@@ -4927,7 +4927,7 @@
         <v>46</v>
       </c>
       <c r="E65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F65" t="s">
         <v>173</v>
@@ -4941,7 +4941,7 @@
         <v>47</v>
       </c>
       <c r="E66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F66" t="s">
         <v>173</v>
@@ -4955,7 +4955,7 @@
         <v>44</v>
       </c>
       <c r="E67" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F67" t="s">
         <v>173</v>
@@ -4969,7 +4969,7 @@
         <v>45</v>
       </c>
       <c r="E68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F68" t="s">
         <v>173</v>
@@ -4983,7 +4983,7 @@
         <v>48</v>
       </c>
       <c r="E69" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F69" t="s">
         <v>173</v>
@@ -4997,7 +4997,7 @@
         <v>49</v>
       </c>
       <c r="E70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F70" t="s">
         <v>173</v>
@@ -5011,7 +5011,7 @@
         <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F71" t="s">
         <v>173</v>
@@ -5025,7 +5025,7 @@
         <v>50</v>
       </c>
       <c r="E72" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F72" t="s">
         <v>173</v>
@@ -5034,10 +5034,10 @@
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>0</v>
@@ -5052,10 +5052,10 @@
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>0</v>
@@ -5070,10 +5070,10 @@
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>0</v>
@@ -5088,16 +5088,16 @@
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F76" t="s">
         <v>173</v>
@@ -5111,7 +5111,7 @@
         <v>43</v>
       </c>
       <c r="E77" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F77" t="s">
         <v>173</v>
@@ -5125,7 +5125,7 @@
         <v>46</v>
       </c>
       <c r="E78" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F78" t="s">
         <v>173</v>
@@ -5136,7 +5136,7 @@
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E79" t="s">
         <v>16</v>
@@ -5148,10 +5148,10 @@
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>0</v>
@@ -5166,10 +5166,10 @@
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>3</v>
@@ -5189,7 +5189,7 @@
         <v>4</v>
       </c>
       <c r="E82" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F82" t="s">
         <v>173</v>
@@ -5203,7 +5203,7 @@
         <v>43</v>
       </c>
       <c r="E83" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F83" t="s">
         <v>173</v>
@@ -5217,7 +5217,7 @@
         <v>46</v>
       </c>
       <c r="E84" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F84" t="s">
         <v>173</v>
@@ -5231,7 +5231,7 @@
         <v>47</v>
       </c>
       <c r="E85" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F85" t="s">
         <v>173</v>
@@ -5240,10 +5240,10 @@
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>0</v>
@@ -5258,10 +5258,10 @@
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>0</v>
@@ -5276,16 +5276,16 @@
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F88" t="s">
         <v>173</v>
@@ -5299,7 +5299,7 @@
         <v>43</v>
       </c>
       <c r="E89" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F89" t="s">
         <v>173</v>
@@ -5313,7 +5313,7 @@
         <v>46</v>
       </c>
       <c r="E90" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F90" t="s">
         <v>173</v>
@@ -5324,7 +5324,7 @@
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E91" t="s">
         <v>16</v>
@@ -5336,10 +5336,10 @@
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>0</v>
@@ -5354,16 +5354,16 @@
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F93" t="s">
         <v>173</v>
@@ -5377,7 +5377,7 @@
         <v>43</v>
       </c>
       <c r="E94" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F94" t="s">
         <v>173</v>
@@ -5391,7 +5391,7 @@
         <v>46</v>
       </c>
       <c r="E95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F95" t="s">
         <v>173</v>
@@ -5405,7 +5405,7 @@
         <v>47</v>
       </c>
       <c r="E96" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F96" t="s">
         <v>173</v>
@@ -5419,7 +5419,7 @@
         <v>44</v>
       </c>
       <c r="E97" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F97" t="s">
         <v>173</v>
@@ -5433,7 +5433,7 @@
         <v>45</v>
       </c>
       <c r="E98" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F98" t="s">
         <v>173</v>
@@ -5447,7 +5447,7 @@
         <v>48</v>
       </c>
       <c r="E99" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F99" t="s">
         <v>173</v>
@@ -5461,7 +5461,7 @@
         <v>49</v>
       </c>
       <c r="E100" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F100" t="s">
         <v>173</v>
@@ -5475,7 +5475,7 @@
         <v>17</v>
       </c>
       <c r="E101" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F101" t="s">
         <v>173</v>
@@ -5489,7 +5489,7 @@
         <v>50</v>
       </c>
       <c r="E102" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F102" t="s">
         <v>173</v>
@@ -5500,10 +5500,10 @@
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E103" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F103" t="s">
         <v>173</v>
@@ -5514,10 +5514,10 @@
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F104" t="s">
         <v>173</v>
@@ -5528,10 +5528,10 @@
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E105" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F105" t="s">
         <v>173</v>
@@ -5542,10 +5542,10 @@
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E106" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F106" t="s">
         <v>173</v>
@@ -5556,10 +5556,10 @@
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F107" t="s">
         <v>173</v>
@@ -5570,10 +5570,10 @@
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F108" t="s">
         <v>173</v>
@@ -5584,10 +5584,10 @@
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F109" t="s">
         <v>173</v>
@@ -5598,10 +5598,10 @@
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E110" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F110" t="s">
         <v>173</v>
@@ -5612,10 +5612,10 @@
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E111" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F111" t="s">
         <v>173</v>
@@ -5624,10 +5624,10 @@
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>0</v>
@@ -5642,10 +5642,10 @@
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>4</v>
@@ -5679,7 +5679,7 @@
         <v>43</v>
       </c>
       <c r="E115" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F115" t="s">
         <v>173</v>
@@ -5688,10 +5688,10 @@
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>0</v>
@@ -5706,10 +5706,10 @@
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>0</v>
@@ -5723,8 +5723,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B47:B56"/>
     <mergeCell ref="B113:B115"/>
     <mergeCell ref="A2:A30"/>
     <mergeCell ref="A31:A117"/>
@@ -5749,6 +5747,8 @@
     <mergeCell ref="C16:C24"/>
     <mergeCell ref="C81:C85"/>
     <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B47:B56"/>
     <mergeCell ref="C113:C115"/>
     <mergeCell ref="C58:C62"/>
     <mergeCell ref="C63:C72"/>

--- a/inst/extdata/MSF-survey-dict.xlsx
+++ b/inst/extdata/MSF-survey-dict.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spina\Desktop\sitrep\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C631541-C95E-4CDA-A634-172EBB87E644}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mortality" sheetId="7" r:id="rId1"/>
     <sheet name="Nutrition" sheetId="8" r:id="rId2"/>
     <sheet name="Vaccination" sheetId="10" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="317">
   <si>
     <t>level</t>
   </si>
@@ -602,15 +601,6 @@
     <t>height</t>
   </si>
   <si>
-    <t>measles</t>
-  </si>
-  <si>
-    <t>Have they had a measles vaccination?</t>
-  </si>
-  <si>
-    <t>Card</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
@@ -975,13 +965,28 @@
   </si>
   <si>
     <t>What was the child's age (in months)</t>
+  </si>
+  <si>
+    <t>soap</t>
+  </si>
+  <si>
+    <t>Have they received soap?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution </t>
+  </si>
+  <si>
+    <t>Healthcentre</t>
+  </si>
+  <si>
+    <t>Never</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1070,9 +1075,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1085,6 +1093,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1180,23 +1191,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1232,23 +1226,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1424,14 +1401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
@@ -1441,7 +1418,7 @@
     <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1461,8 +1438,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1481,8 +1458,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1499,12 +1476,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1517,10 +1494,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1531,12 +1508,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1549,10 +1526,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1563,12 +1540,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1581,10 +1558,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1595,12 +1572,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1613,10 +1590,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1627,10 +1604,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1641,10 +1618,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1655,8 +1632,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1673,14 +1650,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1693,10 +1670,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
@@ -1707,12 +1684,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1725,10 +1702,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1739,8 +1716,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
@@ -1757,8 +1734,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
@@ -1775,8 +1752,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
@@ -1793,12 +1770,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1811,10 +1788,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="2" t="s">
         <v>29</v>
       </c>
@@ -1825,12 +1802,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1843,10 +1820,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="2" t="s">
         <v>29</v>
       </c>
@@ -1857,12 +1834,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1875,10 +1852,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="2" t="s">
         <v>18</v>
       </c>
@@ -1889,10 +1866,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="2" t="s">
         <v>29</v>
       </c>
@@ -1903,12 +1880,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1921,10 +1898,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="2" t="s">
         <v>18</v>
       </c>
@@ -1935,10 +1912,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="2" t="s">
         <v>29</v>
       </c>
@@ -1949,10 +1926,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="2" t="s">
         <v>31</v>
       </c>
@@ -1963,10 +1940,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="2" t="s">
         <v>63</v>
       </c>
@@ -1977,10 +1954,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
       <c r="D34" s="2" t="s">
         <v>65</v>
       </c>
@@ -1991,10 +1968,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
       <c r="D35" s="2" t="s">
         <v>67</v>
       </c>
@@ -2005,10 +1982,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="2" t="s">
         <v>69</v>
       </c>
@@ -2019,10 +1996,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="2" t="s">
         <v>71</v>
       </c>
@@ -2033,8 +2010,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="3"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
       <c r="B38" s="2" t="s">
         <v>72</v>
       </c>
@@ -2051,12 +2028,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D39" s="2">
@@ -2069,10 +2046,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
       <c r="D40" s="2">
         <v>307</v>
       </c>
@@ -2083,12 +2060,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -2101,10 +2078,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
       <c r="D42" s="2" t="s">
         <v>29</v>
       </c>
@@ -2115,10 +2092,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="2" t="s">
         <v>31</v>
       </c>
@@ -2129,10 +2106,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="2" t="s">
         <v>63</v>
       </c>
@@ -2143,10 +2120,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="2" t="s">
         <v>65</v>
       </c>
@@ -2157,10 +2134,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
       <c r="D46" s="2" t="s">
         <v>67</v>
       </c>
@@ -2171,10 +2148,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
       <c r="D47" s="2" t="s">
         <v>69</v>
       </c>
@@ -2185,10 +2162,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="2" t="s">
         <v>71</v>
       </c>
@@ -2199,10 +2176,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="2" t="s">
         <v>86</v>
       </c>
@@ -2213,8 +2190,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="3"/>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
       <c r="B50" s="2" t="s">
         <v>88</v>
       </c>
@@ -2231,12 +2208,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -2249,10 +2226,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
       <c r="D52" s="2" t="s">
         <v>29</v>
       </c>
@@ -2263,10 +2240,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
       <c r="D53" s="2" t="s">
         <v>31</v>
       </c>
@@ -2277,10 +2254,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
       <c r="D54" s="2" t="s">
         <v>63</v>
       </c>
@@ -2291,8 +2268,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="3"/>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
       <c r="B55" s="2" t="s">
         <v>95</v>
       </c>
@@ -2309,8 +2286,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="3"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
       <c r="B56" s="2" t="s">
         <v>97</v>
       </c>
@@ -2327,12 +2304,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -2345,10 +2322,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
       <c r="D58" s="2" t="s">
         <v>18</v>
       </c>
@@ -2359,10 +2336,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
       <c r="D59" s="2" t="s">
         <v>29</v>
       </c>
@@ -2373,12 +2350,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -2391,10 +2368,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
       <c r="D61" s="2" t="s">
         <v>18</v>
       </c>
@@ -2405,10 +2382,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
       <c r="D62" s="2" t="s">
         <v>29</v>
       </c>
@@ -2419,10 +2396,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
       <c r="D63" s="2" t="s">
         <v>31</v>
       </c>
@@ -2433,10 +2410,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
       <c r="D64" s="2" t="s">
         <v>63</v>
       </c>
@@ -2447,10 +2424,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
       <c r="D65" s="2" t="s">
         <v>65</v>
       </c>
@@ -2461,8 +2438,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="3"/>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
       <c r="B66" s="2" t="s">
         <v>109</v>
       </c>
@@ -2479,8 +2456,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="3"/>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
       <c r="B67" s="2" t="s">
         <v>111</v>
       </c>
@@ -2497,8 +2474,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="3"/>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
       <c r="B68" s="2" t="s">
         <v>113</v>
       </c>
@@ -2515,12 +2492,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="4" t="s">
         <v>116</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -2533,10 +2510,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
       <c r="D70" s="2" t="s">
         <v>29</v>
       </c>
@@ -2547,10 +2524,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
       <c r="D71" s="2" t="s">
         <v>31</v>
       </c>
@@ -2561,10 +2538,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
       <c r="D72" s="2" t="s">
         <v>63</v>
       </c>
@@ -2575,10 +2552,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
       <c r="D73" s="2" t="s">
         <v>65</v>
       </c>
@@ -2589,8 +2566,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="3"/>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
       <c r="B74" s="2" t="s">
         <v>120</v>
       </c>
@@ -2607,12 +2584,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="4" t="s">
         <v>123</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -2625,10 +2602,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
       <c r="D76" s="2" t="s">
         <v>18</v>
       </c>
@@ -2639,8 +2616,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="3"/>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
       <c r="B77" s="2" t="s">
         <v>124</v>
       </c>
@@ -2657,12 +2634,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="4" t="s">
         <v>127</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -2675,10 +2652,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
       <c r="D79" s="2" t="s">
         <v>29</v>
       </c>
@@ -2689,10 +2666,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
       <c r="D80" s="2" t="s">
         <v>31</v>
       </c>
@@ -2703,8 +2680,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="3"/>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
       <c r="B81" s="2" t="s">
         <v>130</v>
       </c>
@@ -2721,12 +2698,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="4" t="s">
         <v>133</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -2739,10 +2716,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
       <c r="D83" s="2" t="s">
         <v>18</v>
       </c>
@@ -2753,8 +2730,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="3"/>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
       <c r="B84" s="2" t="s">
         <v>134</v>
       </c>
@@ -2771,12 +2748,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -2789,10 +2766,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
       <c r="D86" s="2" t="s">
         <v>29</v>
       </c>
@@ -2803,10 +2780,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
       <c r="D87" s="2" t="s">
         <v>31</v>
       </c>
@@ -2817,8 +2794,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="3"/>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
       <c r="B88" s="2" t="s">
         <v>138</v>
       </c>
@@ -2835,12 +2812,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="4" t="s">
         <v>141</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -2853,10 +2830,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
       <c r="D90" s="2" t="s">
         <v>15</v>
       </c>
@@ -2867,8 +2844,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="3"/>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
       <c r="B91" s="2" t="s">
         <v>142</v>
       </c>
@@ -2885,12 +2862,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="4" t="s">
         <v>145</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -2903,10 +2880,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
       <c r="D93" s="2" t="s">
         <v>29</v>
       </c>
@@ -2917,8 +2894,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="3"/>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
       <c r="B94" s="2" t="s">
         <v>146</v>
       </c>
@@ -2935,12 +2912,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -2953,10 +2930,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
       <c r="D96" s="2" t="s">
         <v>29</v>
       </c>
@@ -2967,10 +2944,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
       <c r="D97" s="2" t="s">
         <v>31</v>
       </c>
@@ -2981,10 +2958,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
       <c r="D98" s="2" t="s">
         <v>63</v>
       </c>
@@ -2995,10 +2972,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
       <c r="D99" s="2" t="s">
         <v>65</v>
       </c>
@@ -3009,10 +2986,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
       <c r="D100" s="2" t="s">
         <v>67</v>
       </c>
@@ -3023,10 +3000,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
       <c r="D101" s="2" t="s">
         <v>69</v>
       </c>
@@ -3037,10 +3014,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
       <c r="D102" s="2" t="s">
         <v>71</v>
       </c>
@@ -3051,10 +3028,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
       <c r="D103" s="2" t="s">
         <v>86</v>
       </c>
@@ -3065,10 +3042,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
       <c r="D104" s="2" t="s">
         <v>150</v>
       </c>
@@ -3079,8 +3056,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="3"/>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
       <c r="B105" s="2" t="s">
         <v>152</v>
       </c>
@@ -3097,12 +3074,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="4" t="s">
         <v>155</v>
       </c>
       <c r="D106" s="2" t="s">
@@ -3115,10 +3092,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
       <c r="D107" s="2" t="s">
         <v>29</v>
       </c>
@@ -3129,10 +3106,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
       <c r="D108" s="2" t="s">
         <v>31</v>
       </c>
@@ -3143,10 +3120,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
       <c r="D109" s="2" t="s">
         <v>63</v>
       </c>
@@ -3157,10 +3134,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
       <c r="D110" s="2" t="s">
         <v>65</v>
       </c>
@@ -3171,10 +3148,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
       <c r="D111" s="2" t="s">
         <v>67</v>
       </c>
@@ -3185,8 +3162,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="3"/>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
       <c r="B112" s="2" t="s">
         <v>156</v>
       </c>
@@ -3203,8 +3180,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="3"/>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
       <c r="B113" s="2" t="s">
         <v>158</v>
       </c>
@@ -3221,8 +3198,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="3"/>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
       <c r="B114" s="2" t="s">
         <v>160</v>
       </c>
@@ -3239,12 +3216,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="4" t="s">
         <v>163</v>
       </c>
       <c r="D115" s="2" t="s">
@@ -3257,10 +3234,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
       <c r="D116" s="2" t="s">
         <v>29</v>
       </c>
@@ -3271,10 +3248,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
       <c r="D117" s="2" t="s">
         <v>31</v>
       </c>
@@ -3285,10 +3262,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
       <c r="D118" s="2" t="s">
         <v>63</v>
       </c>
@@ -3299,8 +3276,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="3"/>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
       <c r="B119" s="2" t="s">
         <v>165</v>
       </c>
@@ -3317,12 +3294,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="4" t="s">
         <v>168</v>
       </c>
       <c r="D120" s="2" t="s">
@@ -3335,10 +3312,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
       <c r="D121" s="2" t="s">
         <v>29</v>
       </c>
@@ -3349,10 +3326,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
       <c r="D122" s="2" t="s">
         <v>31</v>
       </c>
@@ -3363,8 +3340,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="3"/>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
       <c r="B123" s="2" t="s">
         <v>171</v>
       </c>
@@ -3381,8 +3358,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="3"/>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
       <c r="B124" s="2" t="s">
         <v>173</v>
       </c>
@@ -3401,18 +3378,32 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C115:C118"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C95:C104"/>
-    <mergeCell ref="C106:C111"/>
-    <mergeCell ref="C60:C65"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A124"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B95:B104"/>
+    <mergeCell ref="B106:B111"/>
     <mergeCell ref="B115:B118"/>
     <mergeCell ref="B120:B122"/>
     <mergeCell ref="C4:C5"/>
@@ -3429,46 +3420,32 @@
     <mergeCell ref="C41:C49"/>
     <mergeCell ref="C51:C54"/>
     <mergeCell ref="C57:C59"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B95:B104"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A124"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C60:C65"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C115:C118"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C95:C104"/>
+    <mergeCell ref="C106:C111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
@@ -3478,7 +3455,7 @@
     <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3498,8 +3475,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3518,8 +3495,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>177</v>
       </c>
@@ -3536,8 +3513,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>179</v>
       </c>
@@ -3554,8 +3531,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>181</v>
       </c>
@@ -3572,12 +3549,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -3590,10 +3567,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
@@ -3604,12 +3581,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -3622,10 +3599,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
@@ -3636,12 +3613,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -3654,10 +3631,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
@@ -3668,12 +3645,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -3686,10 +3663,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
@@ -3700,10 +3677,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
@@ -3714,10 +3691,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="2" t="s">
         <v>31</v>
       </c>
@@ -3728,8 +3705,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
@@ -3746,14 +3723,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>1</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -3766,10 +3743,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
@@ -3780,8 +3757,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>184</v>
       </c>
@@ -3798,12 +3775,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>186</v>
       </c>
       <c r="D20" s="2">
@@ -3816,10 +3793,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="2">
         <v>2</v>
       </c>
@@ -3830,8 +3807,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>187</v>
       </c>
@@ -3848,8 +3825,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>188</v>
       </c>
@@ -3866,8 +3843,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
         <v>189</v>
       </c>
@@ -3884,64 +3861,78 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>191</v>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>192</v>
+        <v>314</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="3">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3"/>
-      <c r="B27" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="2">
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>316</v>
       </c>
       <c r="F27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A27"/>
+    <mergeCell ref="A17:A28"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B8:B9"/>
@@ -3956,14 +3947,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
@@ -3973,7 +3964,7 @@
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3993,15 +3984,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -4013,13 +4004,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -4031,86 +4022,86 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>199</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -4119,13 +4110,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
@@ -4137,13 +4128,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>209</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
@@ -4155,10 +4146,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
@@ -4169,13 +4160,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
@@ -4187,13 +4178,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>213</v>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>18</v>
@@ -4205,10 +4196,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
@@ -4219,126 +4210,126 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>215</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="2">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="2" t="s">
         <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="2" t="s">
         <v>86</v>
       </c>
@@ -4349,13 +4340,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>8</v>
@@ -4367,13 +4358,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>227</v>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>18</v>
@@ -4385,24 +4376,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="2" t="s">
         <v>31</v>
       </c>
@@ -4413,27 +4404,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="3"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
       <c r="B30" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>8</v>
@@ -4445,15 +4436,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>1</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>233</v>
+      <c r="B31" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>18</v>
@@ -4465,10 +4456,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="2" t="s">
         <v>29</v>
       </c>
@@ -4479,13 +4470,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="3"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>8</v>
@@ -4497,13 +4488,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="3"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>8</v>
@@ -4515,13 +4506,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>239</v>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>15</v>
@@ -4533,69 +4524,69 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F36" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
       <c r="D38" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E38" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
       <c r="D39" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E39" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="3"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>8</v>
@@ -4607,13 +4598,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="3"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>8</v>
@@ -4625,58 +4616,58 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>249</v>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E43" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="F44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="E45" t="s">
         <v>32</v>
@@ -4685,13 +4676,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="3"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
       <c r="B46" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>8</v>
@@ -4703,157 +4694,157 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>253</v>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F48" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E49" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
       <c r="D50" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E50" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
       <c r="D51" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E51" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
       <c r="D52" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E52" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
       <c r="D53" s="2" t="s">
         <v>69</v>
       </c>
       <c r="E53" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F53" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
       <c r="D54" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E54" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F54" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
       <c r="D55" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E55" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
       <c r="D56" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E56" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F56" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="3"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
       <c r="B57" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>8</v>
@@ -4865,13 +4856,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>267</v>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>15</v>
@@ -4883,213 +4874,213 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
       <c r="D59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F59" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
       <c r="D60" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E60" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F60" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
       <c r="D61" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E61" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F61" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
       <c r="D62" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E62" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>269</v>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F63" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
       <c r="D64" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E64" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F64" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
       <c r="D65" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E65" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F65" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
       <c r="D66" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E66" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F66" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
       <c r="D67" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E67" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F67" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
       <c r="D68" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F68" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
       <c r="D69" s="2" t="s">
         <v>69</v>
       </c>
       <c r="E69" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F69" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
       <c r="D70" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F70" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
       <c r="D71" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E71" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F71" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
       <c r="D72" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E72" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F72" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="3"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
       <c r="B73" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>8</v>
@@ -5101,13 +5092,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="3"/>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
       <c r="B74" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>8</v>
@@ -5119,13 +5110,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="3"/>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
       <c r="B75" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>8</v>
@@ -5137,58 +5128,58 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>249</v>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E76" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F76" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
       <c r="D77" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E77" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F77" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
       <c r="D78" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E78" t="s">
+        <v>199</v>
+      </c>
+      <c r="F78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="F78" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="E79" t="s">
         <v>32</v>
@@ -5197,13 +5188,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="3"/>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
       <c r="B80" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>8</v>
@@ -5215,13 +5206,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>280</v>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>15</v>
@@ -5233,69 +5224,69 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
       <c r="D82" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E82" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F82" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
       <c r="D83" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E83" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F83" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
       <c r="D84" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E84" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F84" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
       <c r="D85" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E85" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F85" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="3"/>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
       <c r="B86" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>8</v>
@@ -5307,13 +5298,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="3"/>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
       <c r="B87" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>8</v>
@@ -5325,58 +5316,58 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>285</v>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E88" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F88" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
       <c r="D89" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E89" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F89" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
       <c r="D90" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E90" t="s">
+        <v>199</v>
+      </c>
+      <c r="F90" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="F90" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="E91" t="s">
         <v>32</v>
@@ -5385,13 +5376,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="3"/>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
       <c r="B92" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>8</v>
@@ -5403,283 +5394,283 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>289</v>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E93" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F93" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
       <c r="D94" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E94" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F94" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
       <c r="D95" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E95" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F95" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
       <c r="D96" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E96" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F96" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
       <c r="D97" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E97" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F97" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
       <c r="D98" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E98" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F98" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
       <c r="D99" s="2" t="s">
         <v>69</v>
       </c>
       <c r="E99" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F99" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
       <c r="D100" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E100" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F100" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
       <c r="D101" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E101" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F101" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
       <c r="D102" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E102" t="s">
+        <v>287</v>
+      </c>
+      <c r="F102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E103" t="s">
+        <v>289</v>
+      </c>
+      <c r="F103" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F102" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="2" t="s">
+      <c r="E104" t="s">
         <v>291</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F104" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F103" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="2" t="s">
+      <c r="E105" t="s">
         <v>293</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F105" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F104" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="2" t="s">
+      <c r="E106" t="s">
         <v>295</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F106" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F105" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="2" t="s">
+      <c r="E107" t="s">
         <v>297</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F107" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F106" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="2" t="s">
+      <c r="E108" t="s">
         <v>299</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F108" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F107" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="2" t="s">
+      <c r="E109" t="s">
         <v>301</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F109" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F108" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="2" t="s">
+      <c r="E110" t="s">
         <v>303</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F110" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F109" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="2" t="s">
+      <c r="E111" t="s">
+        <v>260</v>
+      </c>
+      <c r="F111" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E110" t="s">
-        <v>306</v>
-      </c>
-      <c r="F110" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E111" t="s">
-        <v>263</v>
-      </c>
-      <c r="F111" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="3"/>
-      <c r="B112" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="C112" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>8</v>
@@ -5691,13 +5682,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>310</v>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>18</v>
@@ -5709,10 +5700,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
       <c r="D114" s="2" t="s">
         <v>15</v>
       </c>
@@ -5723,27 +5714,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
       <c r="D115" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E115" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F115" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="3"/>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
       <c r="B116" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>8</v>
@@ -5755,13 +5746,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="3"/>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
       <c r="B117" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>8</v>
@@ -5775,25 +5766,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B47:B56"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="C63:C72"/>
-    <mergeCell ref="C93:C111"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C47:C56"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C24"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="B113:B115"/>
     <mergeCell ref="A2:A30"/>
     <mergeCell ref="A31:A117"/>
     <mergeCell ref="B4:B9"/>
@@ -5809,6 +5781,25 @@
     <mergeCell ref="B93:B111"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B47:B56"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="C63:C72"/>
+    <mergeCell ref="C93:C111"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C47:C56"/>
+    <mergeCell ref="B113:B115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/MSF-survey-dict.xlsx
+++ b/inst/extdata/MSF-survey-dict.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Mortality" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="311">
   <si>
     <t>level</t>
   </si>
@@ -959,6 +959,9 @@
   </si>
   <si>
     <t>Never</t>
+  </si>
+  <si>
+    <t xml:space="preserve">. </t>
   </si>
 </sst>
 </file>
@@ -1054,9 +1057,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1387,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,7 +1433,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="8">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1444,7 +1453,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1462,14 +1471,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
@@ -1480,1734 +1489,1734 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>1</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="2" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="2" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>48</v>
       </c>
-      <c r="F24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="2" t="s">
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>50</v>
       </c>
-      <c r="F25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>15</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" t="s">
-        <v>18</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C29" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>15</v>
       </c>
-      <c r="F28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="2" t="s">
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>18</v>
       </c>
-      <c r="F29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="2" t="s">
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>55</v>
       </c>
-      <c r="F30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6" t="s">
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C32" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>58</v>
-      </c>
-      <c r="F31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" t="s">
-        <v>59</v>
       </c>
       <c r="F32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F34" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
       <c r="D37" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F38" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
       <c r="D39" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="F39" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="D41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C42" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D42" s="2">
         <v>306</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>15</v>
-      </c>
-      <c r="F41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="2">
-        <v>307</v>
-      </c>
-      <c r="E42" t="s">
-        <v>18</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="2">
+        <v>307</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C44" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>77</v>
-      </c>
-      <c r="F43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" t="s">
-        <v>78</v>
       </c>
       <c r="F44" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
       <c r="D45" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="E46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F47" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
       <c r="D48" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F48" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
       <c r="D49" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F49" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
       <c r="D50" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F50" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F51" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="2" t="s">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" t="s">
+        <v>86</v>
+      </c>
+      <c r="F52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="D53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C54" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>91</v>
-      </c>
-      <c r="F53" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" t="s">
-        <v>92</v>
       </c>
       <c r="F54" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
       <c r="D55" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F55" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
       <c r="D56" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="F56" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="2" t="s">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="D58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="2" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="D59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C60" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>15</v>
       </c>
-      <c r="F59" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="2" t="s">
+      <c r="F60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>18</v>
       </c>
-      <c r="F60" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="2" t="s">
+      <c r="F61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>101</v>
       </c>
-      <c r="F61" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6" t="s">
+      <c r="F62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C63" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E63" t="s">
         <v>104</v>
-      </c>
-      <c r="F62" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63" t="s">
-        <v>105</v>
       </c>
       <c r="F63" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
       <c r="D64" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F64" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
       <c r="D65" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F65" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
       <c r="D66" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="E66" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="F66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
       <c r="D67" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E67" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="F67" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="2" t="s">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="D69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="2" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="D70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="2" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="D71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C72" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E72" t="s">
         <v>116</v>
       </c>
-      <c r="F71" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="2" t="s">
+      <c r="F72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E73" t="s">
         <v>117</v>
       </c>
-      <c r="F72" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="2" t="s">
+      <c r="F73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E74" t="s">
         <v>118</v>
       </c>
-      <c r="F73" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="2" t="s">
+      <c r="F74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E75" t="s">
         <v>69</v>
       </c>
-      <c r="F74" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="2" t="s">
+      <c r="F75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E76" t="s">
         <v>86</v>
       </c>
-      <c r="F75" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="2" t="s">
+      <c r="F76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="D77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C78" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E78" t="s">
         <v>15</v>
-      </c>
-      <c r="F77" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" t="s">
-        <v>18</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="2" t="s">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" t="s">
-        <v>7</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="D80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C81" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E81" t="s">
         <v>127</v>
       </c>
-      <c r="F80" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="2" t="s">
+      <c r="F81" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E82" t="s">
         <v>128</v>
       </c>
-      <c r="F81" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="2" t="s">
+      <c r="F82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E83" t="s">
         <v>86</v>
       </c>
-      <c r="F82" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="2" t="s">
+      <c r="F83" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="D84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C85" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E85" t="s">
         <v>15</v>
-      </c>
-      <c r="F84" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E85" t="s">
-        <v>18</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="2" t="s">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="D87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C88" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E88" t="s">
         <v>127</v>
       </c>
-      <c r="F87" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="2" t="s">
+      <c r="F88" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E89" t="s">
         <v>128</v>
       </c>
-      <c r="F88" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="2" t="s">
+      <c r="F89" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E90" t="s">
         <v>86</v>
       </c>
-      <c r="F89" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="2" t="s">
+      <c r="F90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="B91" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="D91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C92" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E92" t="s">
         <v>15</v>
-      </c>
-      <c r="F91" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" t="s">
-        <v>18</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="2" t="s">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+      <c r="B94" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="D94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C95" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E95" t="s">
         <v>15</v>
       </c>
-      <c r="F94" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="2" t="s">
+      <c r="F95" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E96" t="s">
         <v>18</v>
       </c>
-      <c r="F95" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
-      <c r="B96" s="2" t="s">
+      <c r="F96" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="8"/>
+      <c r="B97" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" t="s">
-        <v>7</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="D97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C98" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E98" t="s">
         <v>58</v>
       </c>
-      <c r="F97" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="2" t="s">
+      <c r="F98" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E99" t="s">
         <v>59</v>
       </c>
-      <c r="F98" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="2" t="s">
+      <c r="F99" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E100" t="s">
         <v>60</v>
       </c>
-      <c r="F99" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="2" t="s">
+      <c r="F100" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E101" t="s">
         <v>61</v>
       </c>
-      <c r="F100" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="2" t="s">
+      <c r="F101" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E102" t="s">
         <v>63</v>
       </c>
-      <c r="F101" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="2" t="s">
+      <c r="F102" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E103" t="s">
         <v>65</v>
       </c>
-      <c r="F102" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="2" t="s">
+      <c r="F103" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E104" t="s">
         <v>67</v>
       </c>
-      <c r="F103" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="2" t="s">
+      <c r="F104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E105" t="s">
         <v>69</v>
       </c>
-      <c r="F104" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="2" t="s">
+      <c r="F105" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E106" t="s">
         <v>86</v>
       </c>
-      <c r="F105" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="2" t="s">
+      <c r="F106" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E107" t="s">
         <v>150</v>
       </c>
-      <c r="F106" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="6"/>
-      <c r="B107" s="2" t="s">
+      <c r="F107" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="8"/>
+      <c r="B108" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" t="s">
-        <v>7</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="D108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C109" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E109" t="s">
         <v>104</v>
       </c>
-      <c r="F108" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="2" t="s">
+      <c r="F109" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E110" t="s">
         <v>105</v>
       </c>
-      <c r="F109" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="2" t="s">
+      <c r="F110" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E111" t="s">
         <v>106</v>
       </c>
-      <c r="F110" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="2" t="s">
+      <c r="F111" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E112" t="s">
         <v>107</v>
       </c>
-      <c r="F111" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="6"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="2" t="s">
+      <c r="F112" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E113" t="s">
         <v>69</v>
       </c>
-      <c r="F112" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="2" t="s">
+      <c r="F113" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E114" t="s">
         <v>31</v>
       </c>
-      <c r="F113" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="6"/>
-      <c r="B114" s="2" t="s">
+      <c r="F114" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="8"/>
+      <c r="B115" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E114" t="s">
-        <v>7</v>
-      </c>
-      <c r="F114" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="6"/>
-      <c r="B115" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>7</v>
@@ -3220,12 +3229,12 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="6"/>
+      <c r="A116" s="8"/>
       <c r="B116" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>7</v>
@@ -3238,154 +3247,154 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6" t="s">
+      <c r="A117" s="8"/>
+      <c r="B117" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="8"/>
+      <c r="B118" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C118" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E118" t="s">
         <v>163</v>
       </c>
-      <c r="F117" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="6"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="2" t="s">
+      <c r="F118" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E119" t="s">
         <v>116</v>
       </c>
-      <c r="F118" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="2" t="s">
+      <c r="F119" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E120" t="s">
         <v>69</v>
       </c>
-      <c r="F119" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="6"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="2" t="s">
+      <c r="F120" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E121" t="s">
         <v>86</v>
       </c>
-      <c r="F120" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="6"/>
-      <c r="B121" s="2" t="s">
+      <c r="F121" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="8"/>
+      <c r="B122" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E121" t="s">
-        <v>7</v>
-      </c>
-      <c r="F121" t="s">
+      <c r="D122" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="8"/>
+      <c r="B123" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C123" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E123" t="s">
         <v>168</v>
       </c>
-      <c r="F122" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="6"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="2" t="s">
+      <c r="F123" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E124" t="s">
         <v>169</v>
       </c>
-      <c r="F123" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="6"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="2" t="s">
+      <c r="F124" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E125" t="s">
         <v>86</v>
       </c>
-      <c r="F124" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="6"/>
-      <c r="B125" s="2" t="s">
+      <c r="F125" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="8"/>
+      <c r="B126" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C126" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E125" t="s">
-        <v>7</v>
-      </c>
-      <c r="F125" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="6"/>
-      <c r="B126" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>7</v>
@@ -3397,62 +3406,80 @@
         <v>34</v>
       </c>
     </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="8"/>
+      <c r="B127" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C97:C106"/>
-    <mergeCell ref="C108:C113"/>
-    <mergeCell ref="C62:C67"/>
-    <mergeCell ref="C71:C75"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C39"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C51"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B97:B106"/>
-    <mergeCell ref="B108:B113"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A126"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B51"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C98:C107"/>
+    <mergeCell ref="C109:C114"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C52"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B98:B107"/>
+    <mergeCell ref="B109:B114"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A127"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B52"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B60:B62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3462,8 +3489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3497,7 +3524,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="8">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3517,7 +3544,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>176</v>
       </c>
@@ -3535,7 +3562,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>178</v>
       </c>
@@ -3553,7 +3580,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
         <v>180</v>
       </c>
@@ -3571,11 +3598,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -3589,9 +3616,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
@@ -3603,11 +3630,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -3621,9 +3648,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
@@ -3635,11 +3662,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -3653,9 +3680,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
@@ -3667,11 +3694,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -3685,9 +3712,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
@@ -3699,9 +3726,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
@@ -3713,9 +3740,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
@@ -3727,7 +3754,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
@@ -3745,13 +3772,13 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="8">
         <v>1</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -3765,9 +3792,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="2" t="s">
         <v>28</v>
       </c>
@@ -3779,7 +3806,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="2" t="s">
         <v>183</v>
       </c>
@@ -3797,11 +3824,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="9" t="s">
         <v>185</v>
       </c>
       <c r="D20" s="2">
@@ -3815,9 +3842,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="2">
         <v>2</v>
       </c>
@@ -3829,7 +3856,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="2" t="s">
         <v>186</v>
       </c>
@@ -3847,7 +3874,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="2" t="s">
         <v>187</v>
       </c>
@@ -3865,7 +3892,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="2" t="s">
         <v>188</v>
       </c>
@@ -3883,11 +3910,11 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="9" t="s">
         <v>306</v>
       </c>
       <c r="D25" s="2">
@@ -3901,9 +3928,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="3">
         <v>2</v>
       </c>
@@ -3915,9 +3942,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="2">
         <v>3</v>
       </c>
@@ -3929,7 +3956,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="2" t="s">
         <v>189</v>
       </c>
@@ -3969,10 +3996,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C23"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4006,7 +4033,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="8">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4026,15 +4053,15 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
+      <c r="A3" s="8"/>
+      <c r="B3" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>310</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -4044,390 +4071,390 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>206</v>
       </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="2">
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="2">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>207</v>
       </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="2" t="s">
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>208</v>
       </c>
-      <c r="F12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="2" t="s">
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>209</v>
       </c>
-      <c r="F13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="2" t="s">
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>210</v>
       </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="2" t="s">
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>211</v>
       </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="2" t="s">
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>212</v>
       </c>
-      <c r="F16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="2" t="s">
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>213</v>
       </c>
-      <c r="F17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="2" t="s">
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>31</v>
       </c>
-      <c r="F18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="2" t="s">
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C21" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>29</v>
       </c>
-      <c r="F20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="2" t="s">
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>218</v>
       </c>
-      <c r="F21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="2" t="s">
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>27</v>
       </c>
-      <c r="F22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="2" t="s">
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>219</v>
       </c>
-      <c r="F23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="2" t="s">
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="D25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>1</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C26" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>48</v>
-      </c>
-      <c r="F25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" t="s">
-        <v>50</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>7</v>
@@ -4440,104 +4467,104 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>18</v>
       </c>
-      <c r="F29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="2" t="s">
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>230</v>
       </c>
-      <c r="F30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="2" t="s">
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>231</v>
       </c>
-      <c r="F31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="2" t="s">
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>232</v>
       </c>
-      <c r="F32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="2" t="s">
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>233</v>
       </c>
-      <c r="F33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="2" t="s">
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>7</v>
@@ -4550,506 +4577,506 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C37" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>194</v>
       </c>
-      <c r="F36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="2" t="s">
+      <c r="F37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>195</v>
       </c>
-      <c r="F37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="2" t="s">
+      <c r="F38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>196</v>
       </c>
-      <c r="F38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="2" t="s">
+      <c r="F39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>31</v>
       </c>
-      <c r="F39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="2" t="s">
+      <c r="F40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="D41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C42" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>244</v>
       </c>
-      <c r="F41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="2" t="s">
+      <c r="F42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>245</v>
       </c>
-      <c r="F42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="2" t="s">
+      <c r="F43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>246</v>
       </c>
-      <c r="F43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="2" t="s">
+      <c r="F44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>247</v>
       </c>
-      <c r="F44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="2" t="s">
+      <c r="F45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>248</v>
       </c>
-      <c r="F45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="2" t="s">
+      <c r="F46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>249</v>
       </c>
-      <c r="F46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="2" t="s">
+      <c r="F47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>250</v>
       </c>
-      <c r="F47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="2" t="s">
+      <c r="F48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>251</v>
       </c>
-      <c r="F48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="2" t="s">
+      <c r="F49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>252</v>
       </c>
-      <c r="F49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="2" t="s">
+      <c r="F50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>253</v>
       </c>
-      <c r="F50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="2" t="s">
+      <c r="F51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="D52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C53" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>18</v>
       </c>
-      <c r="F52" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="2" t="s">
+      <c r="F53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>230</v>
       </c>
-      <c r="F53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="2" t="s">
+      <c r="F54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>231</v>
       </c>
-      <c r="F54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="2" t="s">
+      <c r="F55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E56" t="s">
         <v>232</v>
       </c>
-      <c r="F55" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="2" t="s">
+      <c r="F56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>233</v>
       </c>
-      <c r="F56" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6" t="s">
+      <c r="F57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C58" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>244</v>
       </c>
-      <c r="F57" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="2" t="s">
+      <c r="F58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
         <v>245</v>
       </c>
-      <c r="F58" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="2" t="s">
+      <c r="F59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>246</v>
       </c>
-      <c r="F59" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="2" t="s">
+      <c r="F60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>247</v>
       </c>
-      <c r="F60" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="2" t="s">
+      <c r="F61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>248</v>
       </c>
-      <c r="F61" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="2" t="s">
+      <c r="F62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E63" t="s">
         <v>249</v>
       </c>
-      <c r="F62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="2" t="s">
+      <c r="F63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E64" t="s">
         <v>250</v>
       </c>
-      <c r="F63" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="2" t="s">
+      <c r="F64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E65" t="s">
         <v>251</v>
       </c>
-      <c r="F64" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="2" t="s">
+      <c r="F65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>252</v>
       </c>
-      <c r="F65" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="2" t="s">
+      <c r="F66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" t="s">
         <v>253</v>
       </c>
-      <c r="F66" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="2" t="s">
+      <c r="F67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="D68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="2" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>7</v>
@@ -5062,182 +5089,182 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6" t="s">
+      <c r="A70" s="8"/>
+      <c r="B70" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C71" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>194</v>
       </c>
-      <c r="F70" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="2" t="s">
+      <c r="F71" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E72" t="s">
         <v>195</v>
       </c>
-      <c r="F71" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="2" t="s">
+      <c r="F72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E73" t="s">
         <v>196</v>
       </c>
-      <c r="F72" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="2" t="s">
+      <c r="F73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E74" t="s">
         <v>31</v>
       </c>
-      <c r="F73" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="2" t="s">
+      <c r="F74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="D75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C76" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E76" t="s">
         <v>18</v>
       </c>
-      <c r="F75" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="2" t="s">
+      <c r="F76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E77" t="s">
         <v>230</v>
       </c>
-      <c r="F76" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="2" t="s">
+      <c r="F77" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E78" t="s">
         <v>231</v>
       </c>
-      <c r="F77" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="2" t="s">
+      <c r="F78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E79" t="s">
         <v>232</v>
       </c>
-      <c r="F78" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="2" t="s">
+      <c r="F79" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E80" t="s">
         <v>233</v>
       </c>
-      <c r="F79" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="2" t="s">
+      <c r="F80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>7</v>
@@ -5250,442 +5277,442 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6" t="s">
+      <c r="A82" s="8"/>
+      <c r="B82" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C83" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E83" t="s">
         <v>194</v>
       </c>
-      <c r="F82" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="2" t="s">
+      <c r="F83" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E84" t="s">
         <v>195</v>
       </c>
-      <c r="F83" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="2" t="s">
+      <c r="F84" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E85" t="s">
         <v>196</v>
       </c>
-      <c r="F84" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="2" t="s">
+      <c r="F85" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E86" t="s">
         <v>31</v>
       </c>
-      <c r="F85" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="2" t="s">
+      <c r="F86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="D87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C88" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E88" t="s">
         <v>244</v>
       </c>
-      <c r="F87" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="2" t="s">
+      <c r="F88" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E89" t="s">
         <v>245</v>
       </c>
-      <c r="F88" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="2" t="s">
+      <c r="F89" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E90" t="s">
         <v>246</v>
       </c>
-      <c r="F89" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="2" t="s">
+      <c r="F90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E91" t="s">
         <v>247</v>
       </c>
-      <c r="F90" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="2" t="s">
+      <c r="F91" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E92" t="s">
         <v>248</v>
       </c>
-      <c r="F91" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="2" t="s">
+      <c r="F92" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E93" t="s">
         <v>249</v>
       </c>
-      <c r="F92" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="2" t="s">
+      <c r="F93" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E94" t="s">
         <v>250</v>
       </c>
-      <c r="F93" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="2" t="s">
+      <c r="F94" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E95" t="s">
         <v>251</v>
       </c>
-      <c r="F94" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="2" t="s">
+      <c r="F95" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E96" t="s">
         <v>252</v>
       </c>
-      <c r="F95" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="2" t="s">
+      <c r="F96" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E97" t="s">
         <v>280</v>
       </c>
-      <c r="F96" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="2" t="s">
+      <c r="F97" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E98" t="s">
         <v>282</v>
       </c>
-      <c r="F97" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="2" t="s">
+      <c r="F98" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E99" t="s">
         <v>284</v>
       </c>
-      <c r="F98" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="2" t="s">
+      <c r="F99" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E100" t="s">
         <v>286</v>
       </c>
-      <c r="F99" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="2" t="s">
+      <c r="F100" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E101" t="s">
         <v>288</v>
       </c>
-      <c r="F100" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="2" t="s">
+      <c r="F101" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E102" t="s">
         <v>290</v>
       </c>
-      <c r="F101" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="2" t="s">
+      <c r="F102" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E103" t="s">
         <v>292</v>
       </c>
-      <c r="F102" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="2" t="s">
+      <c r="F103" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E104" t="s">
         <v>294</v>
       </c>
-      <c r="F103" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="2" t="s">
+      <c r="F104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E105" t="s">
         <v>296</v>
       </c>
-      <c r="F104" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="2" t="s">
+      <c r="F105" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E106" t="s">
         <v>253</v>
       </c>
-      <c r="F105" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="6"/>
-      <c r="B106" s="2" t="s">
+      <c r="F106" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="8"/>
+      <c r="B107" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E106" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="D107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="6"/>
-      <c r="B107" s="6" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C108" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E108" t="s">
         <v>15</v>
       </c>
-      <c r="F107" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="2" t="s">
+      <c r="F108" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E109" t="s">
         <v>18</v>
       </c>
-      <c r="F108" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="2" t="s">
+      <c r="F109" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E110" t="s">
         <v>232</v>
       </c>
-      <c r="F109" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="6"/>
-      <c r="B110" s="2" t="s">
+      <c r="F110" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="8"/>
+      <c r="B111" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E110" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="6"/>
-      <c r="B111" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>7</v>
@@ -5697,40 +5724,58 @@
         <v>8</v>
       </c>
     </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="8"/>
+      <c r="B112" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="C57:C66"/>
-    <mergeCell ref="C87:C105"/>
-    <mergeCell ref="C41:C50"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="A2:A24"/>
-    <mergeCell ref="A25:A111"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B57:B66"/>
-    <mergeCell ref="B87:B105"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B41:B50"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="C58:C67"/>
+    <mergeCell ref="C88:C106"/>
+    <mergeCell ref="C42:C51"/>
+    <mergeCell ref="C83:C86"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="A26:A112"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B58:B67"/>
+    <mergeCell ref="B88:B106"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B42:B51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/MSF-survey-dict.xlsx
+++ b/inst/extdata/MSF-survey-dict.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Mortality" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="315">
   <si>
     <t>level</t>
   </si>
@@ -962,6 +962,18 @@
   </si>
   <si>
     <t xml:space="preserve">. </t>
+  </si>
+  <si>
+    <t>eligible</t>
+  </si>
+  <si>
+    <t>How many occupants were eligible to be interviewed?</t>
+  </si>
+  <si>
+    <t>interviewed</t>
+  </si>
+  <si>
+    <t>How many occupants were interviewed?</t>
   </si>
 </sst>
 </file>
@@ -1057,9 +1069,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1396,10 +1411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,7 +1448,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1453,7 +1468,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1471,7 +1486,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="7" t="s">
         <v>174</v>
       </c>
@@ -1489,7 +1504,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="4" t="s">
         <v>176</v>
       </c>
@@ -1507,7 +1522,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="4" t="s">
         <v>178</v>
       </c>
@@ -1525,11 +1540,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1543,9 +1558,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1557,11 +1572,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1575,9 +1590,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1589,11 +1604,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1607,9 +1622,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1621,124 +1636,128 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E15" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>17</v>
@@ -1751,9 +1770,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="2" t="s">
         <v>28</v>
       </c>
@@ -1765,48 +1784,44 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>7</v>
@@ -1819,1440 +1834,1440 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>54</v>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
         <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="D31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E33" t="s">
         <v>55</v>
       </c>
-      <c r="F31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8" t="s">
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E34" t="s">
         <v>58</v>
-      </c>
-      <c r="F32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" t="s">
-        <v>60</v>
       </c>
       <c r="F34" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="2" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F38" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F39" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F40" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="D43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C44" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D44" s="2">
         <v>306</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E44" t="s">
         <v>15</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="2">
         <v>307</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E45" t="s">
         <v>18</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F45" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C46" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E46" t="s">
         <v>77</v>
-      </c>
-      <c r="F44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" t="s">
-        <v>78</v>
-      </c>
-      <c r="F45" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" t="s">
-        <v>79</v>
       </c>
       <c r="F46" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="2" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F49" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
       <c r="D50" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F50" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
       <c r="D51" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F51" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E52" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F52" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
       <c r="D53" s="2" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
       <c r="D54" s="2" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="E54" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F54" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="D55" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="D56" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F56" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="F57" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="2" t="s">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" t="s">
+        <v>93</v>
+      </c>
+      <c r="F58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="D60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="2" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="D61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C62" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E62" t="s">
         <v>15</v>
       </c>
-      <c r="F60" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="2" t="s">
+      <c r="F62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E63" t="s">
         <v>18</v>
       </c>
-      <c r="F61" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="2" t="s">
+      <c r="F63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E64" t="s">
         <v>101</v>
       </c>
-      <c r="F62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8" t="s">
+      <c r="F64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C65" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E65" t="s">
         <v>104</v>
-      </c>
-      <c r="F63" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" t="s">
-        <v>105</v>
-      </c>
-      <c r="F64" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" t="s">
-        <v>106</v>
       </c>
       <c r="F65" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
       <c r="D66" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E66" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
       <c r="D67" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E67" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="F67" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
       <c r="D68" s="2" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E68" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="F68" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="2" t="s">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" t="s">
+        <v>69</v>
+      </c>
+      <c r="F69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="9"/>
+      <c r="B71" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="D71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="2" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="9"/>
+      <c r="B72" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="D72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="2" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="9"/>
+      <c r="B73" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="D73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C74" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E74" t="s">
         <v>116</v>
       </c>
-      <c r="F72" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="2" t="s">
+      <c r="F74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E75" t="s">
         <v>117</v>
       </c>
-      <c r="F73" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="2" t="s">
+      <c r="F75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E76" t="s">
         <v>118</v>
       </c>
-      <c r="F74" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="2" t="s">
+      <c r="F76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E77" t="s">
         <v>69</v>
       </c>
-      <c r="F75" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="2" t="s">
+      <c r="F77" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E78" t="s">
         <v>86</v>
       </c>
-      <c r="F76" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="B77" s="2" t="s">
+      <c r="F78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="9"/>
+      <c r="B79" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" t="s">
-        <v>7</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="D79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C80" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E80" t="s">
         <v>15</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F80" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
-      <c r="B80" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" t="s">
-        <v>98</v>
-      </c>
-    </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>126</v>
-      </c>
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
       <c r="D81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E81" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="9"/>
+      <c r="B82" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" t="s">
         <v>127</v>
       </c>
-      <c r="F81" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="2" t="s">
+      <c r="F83" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E84" t="s">
         <v>128</v>
       </c>
-      <c r="F82" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="2" t="s">
+      <c r="F84" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E85" t="s">
         <v>86</v>
       </c>
-      <c r="F83" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
-      <c r="B84" s="2" t="s">
+      <c r="F85" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="9"/>
+      <c r="B86" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" t="s">
-        <v>7</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="D86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C87" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E87" t="s">
         <v>15</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F87" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E86" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
-      <c r="B87" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87" t="s">
-        <v>98</v>
-      </c>
-    </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>136</v>
-      </c>
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
       <c r="D88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="9"/>
+      <c r="B89" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" t="s">
         <v>127</v>
       </c>
-      <c r="F88" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="2" t="s">
+      <c r="F90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E91" t="s">
         <v>128</v>
       </c>
-      <c r="F89" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="2" t="s">
+      <c r="F91" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E92" t="s">
         <v>86</v>
       </c>
-      <c r="F90" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
-      <c r="B91" s="2" t="s">
+      <c r="F92" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="9"/>
+      <c r="B93" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="D93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="9"/>
+      <c r="B94" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C94" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E94" t="s">
         <v>15</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F94" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="2" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E95" t="s">
         <v>18</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F95" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
-      <c r="B94" s="2" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="9"/>
+      <c r="B96" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" t="s">
-        <v>7</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="D96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C97" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E97" t="s">
         <v>15</v>
       </c>
-      <c r="F95" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="2" t="s">
+      <c r="F97" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E98" t="s">
         <v>18</v>
       </c>
-      <c r="F96" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="8"/>
-      <c r="B97" s="2" t="s">
+      <c r="F98" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="9"/>
+      <c r="B99" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" t="s">
-        <v>7</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="D99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="9"/>
+      <c r="B100" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C100" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E100" t="s">
         <v>58</v>
       </c>
-      <c r="F98" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="2" t="s">
+      <c r="F100" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E101" t="s">
         <v>59</v>
       </c>
-      <c r="F99" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="2" t="s">
+      <c r="F101" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E102" t="s">
         <v>60</v>
       </c>
-      <c r="F100" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="2" t="s">
+      <c r="F102" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E103" t="s">
         <v>61</v>
       </c>
-      <c r="F101" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="2" t="s">
+      <c r="F103" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E104" t="s">
         <v>63</v>
       </c>
-      <c r="F102" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="2" t="s">
+      <c r="F104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E105" t="s">
         <v>65</v>
       </c>
-      <c r="F103" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="2" t="s">
+      <c r="F105" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="9"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E106" t="s">
         <v>67</v>
       </c>
-      <c r="F104" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="2" t="s">
+      <c r="F106" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E107" t="s">
         <v>69</v>
       </c>
-      <c r="F105" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="2" t="s">
+      <c r="F107" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E108" t="s">
         <v>86</v>
       </c>
-      <c r="F106" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="2" t="s">
+      <c r="F108" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E109" t="s">
         <v>150</v>
       </c>
-      <c r="F107" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
-      <c r="B108" s="2" t="s">
+      <c r="F109" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="9"/>
+      <c r="B110" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" t="s">
-        <v>7</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="D110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="9"/>
+      <c r="B111" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C111" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E111" t="s">
         <v>104</v>
       </c>
-      <c r="F109" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="2" t="s">
+      <c r="F111" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E112" t="s">
         <v>105</v>
       </c>
-      <c r="F110" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="2" t="s">
+      <c r="F112" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E113" t="s">
         <v>106</v>
       </c>
-      <c r="F111" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="2" t="s">
+      <c r="F113" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E114" t="s">
         <v>107</v>
       </c>
-      <c r="F112" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="2" t="s">
+      <c r="F114" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E115" t="s">
         <v>69</v>
       </c>
-      <c r="F113" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="8"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="2" t="s">
+      <c r="F115" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E116" t="s">
         <v>31</v>
       </c>
-      <c r="F114" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="8"/>
-      <c r="B115" s="2" t="s">
+      <c r="F116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="9"/>
+      <c r="B117" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E115" t="s">
-        <v>7</v>
-      </c>
-      <c r="F115" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="8"/>
-      <c r="B116" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E116" t="s">
-        <v>7</v>
-      </c>
-      <c r="F116" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="8"/>
-      <c r="B117" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>7</v>
@@ -3265,221 +3280,257 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8" t="s">
+      <c r="A118" s="9"/>
+      <c r="B118" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="9"/>
+      <c r="B119" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="9"/>
+      <c r="B120" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C120" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E120" t="s">
         <v>163</v>
       </c>
-      <c r="F118" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="8"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="2" t="s">
+      <c r="F120" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="9"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E121" t="s">
         <v>116</v>
       </c>
-      <c r="F119" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="8"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="2" t="s">
+      <c r="F121" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E122" t="s">
         <v>69</v>
       </c>
-      <c r="F120" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="8"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="2" t="s">
+      <c r="F122" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="9"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E123" t="s">
         <v>86</v>
       </c>
-      <c r="F121" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="8"/>
-      <c r="B122" s="2" t="s">
+      <c r="F123" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="9"/>
+      <c r="B124" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E122" t="s">
-        <v>7</v>
-      </c>
-      <c r="F122" t="s">
+      <c r="D124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="8"/>
-      <c r="B123" s="8" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="9"/>
+      <c r="B125" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C125" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E125" t="s">
         <v>168</v>
       </c>
-      <c r="F123" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="8"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="2" t="s">
+      <c r="F125" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="9"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E126" t="s">
         <v>169</v>
       </c>
-      <c r="F124" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="8"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="2" t="s">
+      <c r="F126" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="9"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E127" t="s">
         <v>86</v>
       </c>
-      <c r="F125" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="8"/>
-      <c r="B126" s="2" t="s">
+      <c r="F127" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="9"/>
+      <c r="B128" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E126" t="s">
-        <v>7</v>
-      </c>
-      <c r="F126" t="s">
+      <c r="D128" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="8"/>
-      <c r="B127" s="2" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="9"/>
+      <c r="B129" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C129" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E127" t="s">
-        <v>7</v>
-      </c>
-      <c r="F127" t="s">
+      <c r="D129" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C98:C107"/>
-    <mergeCell ref="C109:C114"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A20:A129"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B54"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B100:B109"/>
+    <mergeCell ref="B111:B116"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C15:C18"/>
     <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C52"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B98:B107"/>
-    <mergeCell ref="B109:B114"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A127"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B52"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C42"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C120:C123"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C100:C109"/>
+    <mergeCell ref="C111:C116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3487,10 +3538,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="B12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3524,7 +3575,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3544,7 +3595,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>176</v>
       </c>
@@ -3562,7 +3613,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>178</v>
       </c>
@@ -3580,7 +3631,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>180</v>
       </c>
@@ -3598,11 +3649,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -3616,9 +3667,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
@@ -3630,11 +3681,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -3648,9 +3699,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
@@ -3662,11 +3713,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -3680,9 +3731,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
@@ -3694,210 +3745,210 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E14" t="s">
         <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
       </c>
       <c r="F14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>1</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E19" t="s">
         <v>48</v>
       </c>
-      <c r="F17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="2" t="s">
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E20" t="s">
         <v>50</v>
       </c>
-      <c r="F18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="2" t="s">
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D22" s="2">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E22" t="s">
         <v>15</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="2">
         <v>2</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E23" t="s">
         <v>18</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="2" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>7</v>
@@ -3910,85 +3961,121 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D27" s="2">
         <v>1</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E27" t="s">
         <v>307</v>
       </c>
-      <c r="F25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="3">
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="3">
         <v>2</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E28" t="s">
         <v>308</v>
       </c>
-      <c r="F26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="2">
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="2">
         <v>3</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E29" t="s">
         <v>309</v>
       </c>
-      <c r="F27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="2" t="s">
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A19:A30"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3996,10 +4083,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4033,7 +4120,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4053,7 +4140,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="7" t="s">
         <v>174</v>
       </c>
@@ -4071,7 +4158,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="5" t="s">
         <v>176</v>
       </c>
@@ -4089,7 +4176,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>192</v>
       </c>
@@ -4107,11 +4194,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>199</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -4125,9 +4212,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
@@ -4139,7 +4226,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>200</v>
       </c>
@@ -4157,11 +4244,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>203</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -4175,9 +4262,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
@@ -4189,11 +4276,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>205</v>
       </c>
       <c r="D11" s="2">
@@ -4207,9 +4294,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="2">
         <v>2</v>
       </c>
@@ -4221,9 +4308,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
@@ -4235,9 +4322,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="2" t="s">
         <v>62</v>
       </c>
@@ -4249,9 +4336,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="2" t="s">
         <v>64</v>
       </c>
@@ -4263,9 +4350,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="2" t="s">
         <v>66</v>
       </c>
@@ -4277,9 +4364,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="2" t="s">
         <v>68</v>
       </c>
@@ -4291,9 +4378,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="2" t="s">
         <v>70</v>
       </c>
@@ -4305,9 +4392,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="2" t="s">
         <v>85</v>
       </c>
@@ -4319,7 +4406,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
         <v>214</v>
       </c>
@@ -4337,1445 +4424,1481 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E23" t="s">
         <v>29</v>
       </c>
-      <c r="F21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="2" t="s">
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E24" t="s">
         <v>218</v>
       </c>
-      <c r="F22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="2" t="s">
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E25" t="s">
         <v>27</v>
       </c>
-      <c r="F23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="2" t="s">
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E26" t="s">
         <v>219</v>
       </c>
-      <c r="F24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="2" t="s">
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
         <v>1</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E28" t="s">
         <v>48</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="2" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E29" t="s">
         <v>50</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="2" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="D30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="2" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C32" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E32" t="s">
         <v>18</v>
       </c>
-      <c r="F30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="2" t="s">
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E33" t="s">
         <v>230</v>
       </c>
-      <c r="F31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="2" t="s">
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E34" t="s">
         <v>231</v>
       </c>
-      <c r="F32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="2" t="s">
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>232</v>
       </c>
-      <c r="F33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="2" t="s">
+      <c r="F35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E36" t="s">
         <v>233</v>
       </c>
-      <c r="F34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="2" t="s">
+      <c r="F36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="D37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="2" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="D38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C39" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E39" t="s">
         <v>194</v>
       </c>
-      <c r="F37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="2" t="s">
+      <c r="F39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E40" t="s">
         <v>195</v>
       </c>
-      <c r="F38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="2" t="s">
+      <c r="F40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E41" t="s">
         <v>196</v>
       </c>
-      <c r="F39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="2" t="s">
+      <c r="F41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E42" t="s">
         <v>31</v>
       </c>
-      <c r="F40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="2" t="s">
+      <c r="F42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="D43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C44" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E44" t="s">
         <v>244</v>
       </c>
-      <c r="F42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="2" t="s">
+      <c r="F44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E45" t="s">
         <v>245</v>
       </c>
-      <c r="F43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="2" t="s">
+      <c r="F45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E46" t="s">
         <v>246</v>
       </c>
-      <c r="F44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="2" t="s">
+      <c r="F46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E47" t="s">
         <v>247</v>
       </c>
-      <c r="F45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="2" t="s">
+      <c r="F47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E48" t="s">
         <v>248</v>
       </c>
-      <c r="F46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="2" t="s">
+      <c r="F48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E49" t="s">
         <v>249</v>
       </c>
-      <c r="F47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="2" t="s">
+      <c r="F49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E50" t="s">
         <v>250</v>
       </c>
-      <c r="F48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="2" t="s">
+      <c r="F50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E51" t="s">
         <v>251</v>
       </c>
-      <c r="F49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="2" t="s">
+      <c r="F51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E52" t="s">
         <v>252</v>
       </c>
-      <c r="F50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="2" t="s">
+      <c r="F52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E53" t="s">
         <v>253</v>
       </c>
-      <c r="F51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="2" t="s">
+      <c r="F53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="D54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C55" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E55" t="s">
         <v>18</v>
       </c>
-      <c r="F53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="2" t="s">
+      <c r="F55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E56" t="s">
         <v>230</v>
       </c>
-      <c r="F54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="2" t="s">
+      <c r="F56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E57" t="s">
         <v>231</v>
       </c>
-      <c r="F55" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="2" t="s">
+      <c r="F57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E58" t="s">
         <v>232</v>
       </c>
-      <c r="F56" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="2" t="s">
+      <c r="F58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E59" t="s">
         <v>233</v>
       </c>
-      <c r="F57" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8" t="s">
+      <c r="F59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C60" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E60" t="s">
         <v>244</v>
       </c>
-      <c r="F58" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="2" t="s">
+      <c r="F60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E61" t="s">
         <v>245</v>
       </c>
-      <c r="F59" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="2" t="s">
+      <c r="F61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E62" t="s">
         <v>246</v>
       </c>
-      <c r="F60" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="2" t="s">
+      <c r="F62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E63" t="s">
         <v>247</v>
       </c>
-      <c r="F61" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="2" t="s">
+      <c r="F63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E64" t="s">
         <v>248</v>
       </c>
-      <c r="F62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="2" t="s">
+      <c r="F64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E65" t="s">
         <v>249</v>
       </c>
-      <c r="F63" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="2" t="s">
+      <c r="F65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E66" t="s">
         <v>250</v>
       </c>
-      <c r="F64" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="2" t="s">
+      <c r="F66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E67" t="s">
         <v>251</v>
       </c>
-      <c r="F65" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="2" t="s">
+      <c r="F67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E68" t="s">
         <v>252</v>
       </c>
-      <c r="F66" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="2" t="s">
+      <c r="F68" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E69" t="s">
         <v>253</v>
       </c>
-      <c r="F67" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-      <c r="B68" s="2" t="s">
+      <c r="F69" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="9"/>
+      <c r="B70" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="D70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="2" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="9"/>
+      <c r="B71" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="D71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="2" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="9"/>
+      <c r="B72" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="D72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C73" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E73" t="s">
         <v>194</v>
       </c>
-      <c r="F71" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="2" t="s">
+      <c r="F73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E74" t="s">
         <v>195</v>
       </c>
-      <c r="F72" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="2" t="s">
+      <c r="F74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E75" t="s">
         <v>196</v>
       </c>
-      <c r="F73" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="2" t="s">
+      <c r="F75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E76" t="s">
         <v>31</v>
       </c>
-      <c r="F74" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
-      <c r="B75" s="2" t="s">
+      <c r="F76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="9"/>
+      <c r="B77" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="D77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C78" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E78" t="s">
         <v>18</v>
       </c>
-      <c r="F76" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="2" t="s">
+      <c r="F78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E79" t="s">
         <v>230</v>
       </c>
-      <c r="F77" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="2" t="s">
+      <c r="F79" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E80" t="s">
         <v>231</v>
       </c>
-      <c r="F78" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="2" t="s">
+      <c r="F80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E81" t="s">
         <v>232</v>
       </c>
-      <c r="F79" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="2" t="s">
+      <c r="F81" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E82" t="s">
         <v>233</v>
       </c>
-      <c r="F80" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
-      <c r="B81" s="2" t="s">
+      <c r="F82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="9"/>
+      <c r="B83" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="D83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
-      <c r="B82" s="2" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="9"/>
+      <c r="B84" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="D84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C85" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E85" t="s">
         <v>194</v>
       </c>
-      <c r="F83" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="2" t="s">
+      <c r="F85" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E86" t="s">
         <v>195</v>
       </c>
-      <c r="F84" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="2" t="s">
+      <c r="F86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E87" t="s">
         <v>196</v>
       </c>
-      <c r="F85" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="2" t="s">
+      <c r="F87" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E88" t="s">
         <v>31</v>
       </c>
-      <c r="F86" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
-      <c r="B87" s="2" t="s">
+      <c r="F88" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="9"/>
+      <c r="B89" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="D89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C90" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E90" t="s">
         <v>244</v>
       </c>
-      <c r="F88" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="2" t="s">
+      <c r="F90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E91" t="s">
         <v>245</v>
       </c>
-      <c r="F89" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="2" t="s">
+      <c r="F91" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E92" t="s">
         <v>246</v>
       </c>
-      <c r="F90" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="2" t="s">
+      <c r="F92" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="9"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E93" t="s">
         <v>247</v>
       </c>
-      <c r="F91" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="2" t="s">
+      <c r="F93" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E94" t="s">
         <v>248</v>
       </c>
-      <c r="F92" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="2" t="s">
+      <c r="F94" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E95" t="s">
         <v>249</v>
       </c>
-      <c r="F93" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="2" t="s">
+      <c r="F95" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E96" t="s">
         <v>250</v>
       </c>
-      <c r="F94" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="2" t="s">
+      <c r="F96" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E97" t="s">
         <v>251</v>
       </c>
-      <c r="F95" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="2" t="s">
+      <c r="F97" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E98" t="s">
         <v>252</v>
       </c>
-      <c r="F96" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="2" t="s">
+      <c r="F98" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E99" t="s">
         <v>280</v>
       </c>
-      <c r="F97" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="2" t="s">
+      <c r="F99" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E100" t="s">
         <v>282</v>
       </c>
-      <c r="F98" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="2" t="s">
+      <c r="F100" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E101" t="s">
         <v>284</v>
       </c>
-      <c r="F99" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="2" t="s">
+      <c r="F101" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E102" t="s">
         <v>286</v>
       </c>
-      <c r="F100" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="2" t="s">
+      <c r="F102" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E103" t="s">
         <v>288</v>
       </c>
-      <c r="F101" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="2" t="s">
+      <c r="F103" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E104" t="s">
         <v>290</v>
       </c>
-      <c r="F102" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="2" t="s">
+      <c r="F104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E105" t="s">
         <v>292</v>
       </c>
-      <c r="F103" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="2" t="s">
+      <c r="F105" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="9"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E106" t="s">
         <v>294</v>
       </c>
-      <c r="F104" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="2" t="s">
+      <c r="F106" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E107" t="s">
         <v>296</v>
       </c>
-      <c r="F105" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="2" t="s">
+      <c r="F107" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E108" t="s">
         <v>253</v>
       </c>
-      <c r="F106" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
-      <c r="B107" s="2" t="s">
+      <c r="F108" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="9"/>
+      <c r="B109" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" t="s">
-        <v>7</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="D109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
-      <c r="B108" s="8" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="9"/>
+      <c r="B110" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C110" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E110" t="s">
         <v>15</v>
       </c>
-      <c r="F108" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="2" t="s">
+      <c r="F110" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E111" t="s">
         <v>18</v>
       </c>
-      <c r="F109" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="2" t="s">
+      <c r="F111" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E112" t="s">
         <v>232</v>
       </c>
-      <c r="F110" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
-      <c r="B111" s="2" t="s">
+      <c r="F112" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="9"/>
+      <c r="B113" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E111" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" t="s">
+      <c r="D113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
-      <c r="B112" s="2" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="9"/>
+      <c r="B114" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E112" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="D114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="C58:C67"/>
-    <mergeCell ref="C88:C106"/>
-    <mergeCell ref="C42:C51"/>
-    <mergeCell ref="C83:C86"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="A28:A114"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B60:B69"/>
+    <mergeCell ref="B90:B108"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B44:B53"/>
+    <mergeCell ref="C44:C53"/>
+    <mergeCell ref="C85:C88"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="C73:C76"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C19"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A26:A112"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B58:B67"/>
-    <mergeCell ref="B88:B106"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="C60:C69"/>
+    <mergeCell ref="C90:C108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
